--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -621,6 +621,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,7 +662,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -668,6 +671,30 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -967,48 +994,48 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" customWidth="1"/>
-    <col min="3" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="15" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="15" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1072,7 +1099,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1104,7 +1131,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
@@ -1136,7 +1163,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
@@ -1168,7 +1195,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -1200,7 +1227,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
@@ -1232,7 +1259,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
@@ -1264,7 +1291,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
@@ -1296,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
@@ -1328,7 +1355,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
@@ -1360,7 +1387,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2016</v>
       </c>
@@ -1384,15 +1411,15 @@
       <c r="K13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="18">
-        <v>0</v>
+      <c r="L13" s="22">
+        <v>1</v>
       </c>
       <c r="M13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
@@ -1424,7 +1451,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1445,8 +1472,8 @@
       <c r="J15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="18">
-        <v>0</v>
+      <c r="K15" s="22">
+        <v>1</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>8</v>
@@ -1456,7 +1483,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2019</v>
       </c>
@@ -1477,8 +1504,8 @@
       <c r="J16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="18">
-        <v>0</v>
+      <c r="K16" s="22">
+        <v>1</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>8</v>
@@ -1496,6 +1523,51 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1510,15 +1582,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="4.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1540,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1551,7 +1623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1562,7 +1634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1573,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1584,7 +1656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
   <si>
     <t>Year</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>100th Anniversary - University of Ljubljana</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
   </si>
 </sst>
 </file>
@@ -407,12 +413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9BE5FF"/>
         <bgColor rgb="FF9BE5FF"/>
       </patternFill>
@@ -421,6 +421,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9F9F"/>
         <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -561,7 +567,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -581,9 +587,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,16 +607,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -990,52 +993,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="15" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" customWidth="1"/>
+    <col min="3" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="27" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,450 +1070,590 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="18">
+      <c r="F3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="16">
         <v>0</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="8" t="str">
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7" t="str">
         <f t="shared" ref="M3:M16" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="G4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="16">
         <v>0</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="8" t="str">
+      <c r="K4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18">
+      <c r="F5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="16">
         <v>0</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="8" t="str">
+      <c r="J5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="18">
+      <c r="F6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="16">
         <v>0</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="8" t="str">
+      <c r="J6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18">
+      <c r="F7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="16">
         <v>0</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="8" t="str">
+      <c r="J7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="18">
+      <c r="H8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="8" t="str">
+      <c r="L8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="17" t="s">
+      <c r="C9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="18">
+      <c r="H9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="8" t="str">
+      <c r="L9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="17" t="s">
+      <c r="C10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="G10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="16">
         <v>0</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="8" t="str">
+      <c r="K10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="17" t="s">
+      <c r="C11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="H11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="16">
         <v>0</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="8" t="str">
+      <c r="L11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="17" t="s">
+      <c r="C12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="H12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16">
         <v>0</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="8" t="str">
+      <c r="L12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2016</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="17" t="s">
+      <c r="C13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="I13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="20">
         <v>1</v>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="M13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="17" t="s">
+      <c r="C14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="H14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="16">
         <v>0</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="8" t="str">
+      <c r="L14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="17" t="s">
+      <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="H15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="20">
         <v>1</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="8" t="str">
+      <c r="L15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2019</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="17" t="s">
+      <c r="C16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="22">
+      <c r="H16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="20">
         <v>1</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="8" t="str">
+      <c r="L16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1582,88 +1725,88 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -625,6 +625,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,9 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -665,7 +665,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -720,9 +728,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -997,48 +1005,48 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="14" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="25" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1086,13 +1094,13 @@
       <c r="E3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="16">
@@ -1112,7 +1120,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1125,16 +1133,16 @@
       <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="G4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -1154,7 +1162,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
@@ -1170,13 +1178,13 @@
       <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="F5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="16">
@@ -1196,7 +1204,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
@@ -1212,13 +1220,13 @@
       <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="31" t="s">
+      <c r="F6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="16">
@@ -1238,7 +1246,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -1254,13 +1262,13 @@
       <c r="E7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="31" t="s">
+      <c r="F7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="16">
@@ -1280,7 +1288,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
@@ -1293,16 +1301,16 @@
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -1322,7 +1330,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
@@ -1335,16 +1343,16 @@
       <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="17" t="s">
@@ -1364,7 +1372,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
@@ -1377,16 +1385,16 @@
       <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="G10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -1406,7 +1414,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
@@ -1419,16 +1427,16 @@
       <c r="D11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="17" t="s">
@@ -1448,7 +1456,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
@@ -1461,16 +1469,16 @@
       <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="17" t="s">
@@ -1490,7 +1498,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2016</v>
       </c>
@@ -1503,13 +1511,13 @@
       <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="E13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -1532,7 +1540,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
@@ -1545,16 +1553,16 @@
       <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="17" t="s">
@@ -1563,8 +1571,8 @@
       <c r="J14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="16">
-        <v>0</v>
+      <c r="K14" s="20">
+        <v>1</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>8</v>
@@ -1574,7 +1582,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1587,16 +1595,16 @@
       <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="17" t="s">
@@ -1606,17 +1614,17 @@
         <v>8</v>
       </c>
       <c r="K15" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2019</v>
       </c>
@@ -1629,16 +1637,16 @@
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="17" t="s">
@@ -1667,8 +1675,23 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -1681,9 +1704,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="L13">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1696,9 +1719,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1725,15 +1748,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1755,7 +1778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1766,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1777,7 +1800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1788,7 +1811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1799,7 +1822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -665,7 +665,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -682,6 +690,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -728,9 +744,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
+    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1005,7 +1021,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,8 +1203,8 @@
       <c r="H5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="16">
-        <v>0</v>
+      <c r="I5" s="20">
+        <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>8</v>
@@ -1445,8 +1461,8 @@
       <c r="J11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="16">
-        <v>0</v>
+      <c r="K11" s="20">
+        <v>1</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>8</v>
@@ -1675,8 +1691,38 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -1689,9 +1735,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K14">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -1704,9 +1750,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1719,9 +1765,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>500 years since the birth of Adam Bohorič</t>
   </si>
 </sst>
 </file>
@@ -665,15 +668,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -690,6 +685,22 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -744,9 +755,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1015,28 +1026,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="14" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" customWidth="1"/>
+    <col min="3" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1071,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
@@ -1094,7 +1105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
@@ -1346,7 +1357,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
@@ -1430,7 +1441,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2016</v>
       </c>
@@ -1556,7 +1567,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1640,7 +1651,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2019</v>
       </c>
@@ -1679,6 +1690,30 @@
       </c>
       <c r="M16" s="7" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="7" t="str">
+        <f t="shared" ref="M17" si="1">IF(OR(AND(I17&gt;1,I17&lt;&gt;"-"),AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1691,8 +1726,23 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -1705,9 +1755,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="L13">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -1720,9 +1770,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="K14">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -1735,9 +1785,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="I5">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -1750,9 +1800,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1765,9 +1815,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="K17">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1794,15 +1844,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1824,7 +1874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1835,7 +1885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1846,7 +1896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1857,7 +1907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1868,7 +1918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21723BC2-62DE-427D-A958-A97096F12667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -314,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,11 +665,19 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="3"/>
+    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -734,6 +743,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -748,16 +765,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1025,29 +1042,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="14" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1088,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
@@ -1105,7 +1122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1189,7 +1206,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
@@ -1231,7 +1248,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
@@ -1273,7 +1290,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
@@ -1357,7 +1374,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
@@ -1441,7 +1458,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
@@ -1483,7 +1500,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
@@ -1525,7 +1542,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2016</v>
       </c>
@@ -1567,7 +1584,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
@@ -1609,7 +1626,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1628,30 +1645,30 @@
       <c r="F15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="20">
         <v>2</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2019</v>
       </c>
@@ -1670,48 +1687,66 @@
       <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>8</v>
-      </c>
       <c r="I16" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="20">
         <v>1</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="M16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2020</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="17"/>
+      <c r="E17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="M17" s="7" t="str">
         <f t="shared" ref="M17" si="1">IF(OR(AND(I17&gt;1,I17&lt;&gt;"-"),AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
@@ -1725,9 +1760,9 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="L13">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -1740,9 +1775,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K14">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -1755,9 +1790,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="I5">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -1770,9 +1805,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K11">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -1785,24 +1820,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1815,9 +1835,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="L15">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1837,22 +1857,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1874,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1885,7 +1905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1896,7 +1916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1907,7 +1927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1918,7 +1938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1931,12 +1951,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21723BC2-62DE-427D-A958-A97096F12667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A57F94-FF9D-4989-A980-4C3226D1B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -175,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -310,13 +319,25 @@
   </si>
   <si>
     <t>500 years since the birth of Adam Bohorič</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Establishment of the Carniola Provincial Museum</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Birth of Jože Plečnik</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Birth of Josip Plemelj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +402,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -669,7 +696,39 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -743,14 +802,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -772,9 +823,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1043,28 +1094,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="14" customWidth="1"/>
-    <col min="9" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" customWidth="1"/>
+    <col min="3" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1139,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
@@ -1122,7 +1173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1164,7 +1215,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1192,8 +1243,8 @@
       <c r="I4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="16">
-        <v>0</v>
+      <c r="J4" s="20">
+        <v>1</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>8</v>
@@ -1206,7 +1257,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
@@ -1248,7 +1299,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
@@ -1273,8 +1324,8 @@
       <c r="H6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="16">
-        <v>0</v>
+      <c r="I6" s="20">
+        <v>2</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>8</v>
@@ -1287,10 +1338,10 @@
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -1332,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
@@ -1363,8 +1414,8 @@
       <c r="J8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="16">
-        <v>0</v>
+      <c r="K8" s="20">
+        <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>8</v>
@@ -1374,7 +1425,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
@@ -1405,8 +1456,8 @@
       <c r="J9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
+      <c r="K9" s="20">
+        <v>1</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>8</v>
@@ -1416,7 +1467,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
@@ -1444,8 +1495,8 @@
       <c r="I10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="16">
-        <v>0</v>
+      <c r="J10" s="20">
+        <v>1</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>8</v>
@@ -1458,7 +1509,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
@@ -1500,7 +1551,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
@@ -1531,8 +1582,8 @@
       <c r="J12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="16">
-        <v>0</v>
+      <c r="K12" s="20">
+        <v>1</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>8</v>
@@ -1542,7 +1593,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2016</v>
       </c>
@@ -1584,7 +1635,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
@@ -1626,7 +1677,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1668,7 +1719,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2019</v>
       </c>
@@ -1710,7 +1761,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2020</v>
       </c>
@@ -1748,7 +1799,175 @@
         <v>8</v>
       </c>
       <c r="M17" s="7" t="str">
-        <f t="shared" ref="M17" si="1">IF(OR(AND(I17&gt;1,I17&lt;&gt;"-"),AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="M17:M18" si="1">IF(OR(AND(I17&gt;1,I17&lt;&gt;"-"),AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f t="shared" ref="M19:M21" si="2">IF(OR(AND(I19&gt;1,I19&lt;&gt;"-"),AND(J19&gt;1,J19&lt;&gt;"-"),AND(K19&gt;1,K19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1760,9 +1979,85 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -1775,9 +2070,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -1790,9 +2085,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -1805,9 +2100,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -1820,9 +2115,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1835,9 +2145,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="J4">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1864,15 +2174,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +2193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1894,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1905,7 +2215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1916,7 +2226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1927,7 +2237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1938,7 +2248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A57F94-FF9D-4989-A980-4C3226D1B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9CF40-E0D9-43B3-A178-91E9761C15D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>150th Anniversary - Birth of Josip Plemelj</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -698,6 +698,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -744,15 +753,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -823,9 +823,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1100,7 +1100,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,20 +1120,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
       <c r="I1" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
@@ -1143,34 +1143,34 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1178,37 +1178,37 @@
         <v>2007</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="16">
         <v>0</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="7" t="str">
         <f t="shared" ref="M3:M16" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1220,37 +1220,37 @@
         <v>2008</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="20">
         <v>1</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1262,37 +1262,37 @@
         <v>2009</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="20">
         <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1304,37 +1304,37 @@
         <v>2010</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="20">
         <v>2</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1346,37 +1346,37 @@
         <v>2011</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1388,37 +1388,37 @@
         <v>2012</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="20">
         <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1430,37 +1430,37 @@
         <v>2013</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="20">
         <v>1</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1472,37 +1472,37 @@
         <v>2014</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="20">
         <v>1</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1514,37 +1514,37 @@
         <v>2015</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" s="20">
         <v>1</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1556,37 +1556,37 @@
         <v>2015</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" s="20">
         <v>1</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1598,34 +1598,34 @@
         <v>2016</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="20">
         <v>1</v>
@@ -1640,37 +1640,37 @@
         <v>2017</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14" s="20">
         <v>1</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1682,34 +1682,34 @@
         <v>2018</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="20">
         <v>2</v>
@@ -1724,34 +1724,34 @@
         <v>2019</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="20">
         <v>1</v>
@@ -1766,37 +1766,37 @@
         <v>2020</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" s="16">
         <v>0</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" ref="M17:M18" si="1">IF(OR(AND(I17&gt;1,I17&lt;&gt;"-"),AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-")),"Can exchange","")</f>
@@ -1808,37 +1808,37 @@
         <v>2021</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18" s="16">
         <v>0</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M18" s="7" t="str">
         <f t="shared" si="1"/>
@@ -1850,34 +1850,34 @@
         <v>2022</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" s="16">
         <v>0</v>
@@ -1892,37 +1892,37 @@
         <v>2022</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K20" s="16">
         <v>0</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1934,34 +1934,34 @@
         <v>2023</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" s="16">
         <v>0</v>
@@ -2071,7 +2071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -2086,7 +2086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -2101,7 +2101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -2116,7 +2116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2131,7 +2131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2146,7 +2146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2184,13 +2184,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2198,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2209,10 +2209,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2220,10 +2220,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2231,10 +2231,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2242,10 +2242,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2253,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
